--- a/docs/hca_template.xlsx
+++ b/docs/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wteh/Documents/GitHub_Issues/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B07A3-BD59-544F-BB98-4220CE93038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C30C3D0-8F58-2A43-9023-2E9338C3A6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21200" yWindow="4000" windowWidth="32660" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24000" yWindow="3420" windowWidth="24600" windowHeight="22840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="1517">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4588,6 +4588,18 @@
   </si>
   <si>
     <t>10000; 2100000</t>
+  </si>
+  <si>
+    <t>Official HCA Publication</t>
+  </si>
+  <si>
+    <t>Has the publication been accepted as an official HCA publication, according to the process described in https://www.humancellatlas.org/publications/ ?</t>
+  </si>
+  <si>
+    <t>yes; no</t>
+  </si>
+  <si>
+    <t>project.publications.official_hca_publication</t>
   </si>
 </sst>
 </file>
@@ -5022,8 +5034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12100,8 +12112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12109,7 +12121,7 @@
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12128,7 +12140,9 @@
       <c r="E1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1513</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -12146,7 +12160,9 @@
       <c r="E2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -12164,7 +12180,9 @@
       <c r="E3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>1515</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -12181,6 +12199,9 @@
       </c>
       <c r="E4" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
